--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/20/seed5/result_data_RandomForest.xlsx
@@ -466,7 +466,7 @@
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.340499999999995</v>
+        <v>-7.43169999999999</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.3368</v>
+        <v>-12.6263</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -508,7 +508,7 @@
         <v>-11.8</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.106900000000005</v>
+        <v>-8.009200000000007</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.435700000000004</v>
+        <v>-8.109500000000001</v>
       </c>
     </row>
     <row r="7">
@@ -550,7 +550,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.986400000000005</v>
+        <v>-8.894800000000002</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.3806</v>
+        <v>-10.272</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -583,10 +583,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.70649999999999</v>
+        <v>-21.82529999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>5.838800000000005</v>
+        <v>5.6375</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.4287</v>
+        <v>-21.3512</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -617,7 +617,7 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-13.32059999999999</v>
+        <v>-13.0571</v>
       </c>
       <c r="D13" t="n">
         <v>-8.359999999999999</v>
@@ -631,7 +631,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.94679999999999</v>
+        <v>-13.85219999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.6634</v>
+        <v>-21.49779999999999</v>
       </c>
       <c r="B15" t="n">
         <v>5.32</v>
@@ -676,7 +676,7 @@
         <v>-14.84</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.381099999999989</v>
+        <v>-8.28999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -701,7 +701,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-13.01860000000001</v>
+        <v>-12.52920000000001</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -729,7 +729,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.18309999999999</v>
+        <v>-12.41859999999999</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -743,7 +743,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-10.5282</v>
+        <v>-10.3826</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.7485</v>
+        <v>8.577700000000004</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-11.7734</v>
+        <v>-12.35139999999999</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.9106</v>
+        <v>-11.9453</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.6978</v>
+        <v>-21.8936</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -816,15 +816,15 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.769500000000003</v>
+        <v>-8.100400000000004</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.635</v>
+        <v>-21.5933</v>
       </c>
       <c r="B28" t="n">
-        <v>5.717900000000002</v>
+        <v>6.167999999999999</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-21.6041</v>
+        <v>-21.43729999999999</v>
       </c>
       <c r="B31" t="n">
         <v>4.47</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.27999999999997</v>
+        <v>-21.35489999999998</v>
       </c>
       <c r="B32" t="n">
-        <v>5.7008</v>
+        <v>5.320900000000003</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -900,7 +900,7 @@
         <v>-12.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-7.863900000000001</v>
+        <v>-7.926200000000001</v>
       </c>
     </row>
     <row r="34">
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.593400000000008</v>
+        <v>9.59320000000001</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-21.38839999999998</v>
+        <v>-21.44769999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>5.1402</v>
+        <v>5.073099999999999</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -950,7 +950,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>9.072000000000001</v>
+        <v>9.027600000000001</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -961,13 +961,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.62719999999998</v>
+        <v>-19.51379999999999</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.46220000000001</v>
+        <v>-12.1569</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.86160000000001</v>
+        <v>-12.43970000000001</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>10.0995</v>
+        <v>10.3201</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.85870000000001</v>
+        <v>-21.90699999999999</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>5.857600000000002</v>
+        <v>5.733000000000001</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.29879999999999</v>
+        <v>-10.97549999999999</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-22.09610000000002</v>
+        <v>-21.98650000000001</v>
       </c>
       <c r="B54" t="n">
-        <v>5.072900000000001</v>
+        <v>5.224799999999998</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.60850000000003</v>
+        <v>-21.5503</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1208,18 +1208,18 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-7.914600000000002</v>
+        <v>-8.0588</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-21.85419999999999</v>
+        <v>-21.7742</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.83189999999999</v>
+        <v>-12.6801</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1264,7 +1264,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-8.034299999999995</v>
+        <v>-8.029199999999994</v>
       </c>
     </row>
     <row r="60">
@@ -1367,7 +1367,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.63859999999997</v>
+        <v>-21.62709999999996</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.68729999999997</v>
+        <v>-21.71489999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1418,7 +1418,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.032699999999998</v>
+        <v>-5.987299999999999</v>
       </c>
     </row>
     <row r="71">
@@ -1429,7 +1429,7 @@
         <v>4.58</v>
       </c>
       <c r="C71" t="n">
-        <v>-11.9552</v>
+        <v>-12.1546</v>
       </c>
       <c r="D71" t="n">
         <v>-7.44</v>
@@ -1437,13 +1437,13 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.97269999999999</v>
+        <v>-21.80829999999998</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-12.5768</v>
+        <v>-12.3596</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-19.37270000000001</v>
+        <v>-19.45860000000001</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1524,10 +1524,10 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.268399999999993</v>
+        <v>9.405099999999994</v>
       </c>
       <c r="C78" t="n">
-        <v>-10.70119999999999</v>
+        <v>-10.7847</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1552,13 +1552,13 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>8.971400000000001</v>
+        <v>8.880000000000003</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-8.387900000000002</v>
+        <v>-8.264699999999999</v>
       </c>
     </row>
     <row r="81">
@@ -1591,13 +1591,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.67629999999999</v>
+        <v>-21.52359999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-11.62239999999999</v>
+        <v>-12.80279999999999</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1625,7 +1625,7 @@
         <v>4.31</v>
       </c>
       <c r="C85" t="n">
-        <v>-13.07219999999999</v>
+        <v>-13.167</v>
       </c>
       <c r="D85" t="n">
         <v>-7.87</v>
@@ -1633,13 +1633,13 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.8813</v>
+        <v>-21.94180000000001</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-12.78279999999999</v>
+        <v>-13.1713</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1695,7 +1695,7 @@
         <v>4.69</v>
       </c>
       <c r="C90" t="n">
-        <v>-10.11670000000001</v>
+        <v>-10.08130000000001</v>
       </c>
       <c r="D90" t="n">
         <v>-7</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.98389999999998</v>
+        <v>-20.60629999999999</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.42150000000001</v>
+        <v>-21.44920000000002</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1768,7 +1768,7 @@
         <v>-11.3</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.688700000000004</v>
+        <v>-7.920100000000004</v>
       </c>
     </row>
     <row r="96">
@@ -1779,7 +1779,7 @@
         <v>4.26</v>
       </c>
       <c r="C96" t="n">
-        <v>-10.0105</v>
+        <v>-9.879399999999999</v>
       </c>
       <c r="D96" t="n">
         <v>-5.14</v>
@@ -1790,13 +1790,13 @@
         <v>-21.33</v>
       </c>
       <c r="B97" t="n">
-        <v>6.881000000000004</v>
+        <v>5.938700000000003</v>
       </c>
       <c r="C97" t="n">
         <v>-10.47</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.222900000000005</v>
+        <v>-8.341500000000011</v>
       </c>
     </row>
     <row r="98">
@@ -1810,15 +1810,15 @@
         <v>-10.59</v>
       </c>
       <c r="D98" t="n">
-        <v>-7.722500000000001</v>
+        <v>-7.850699999999997</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-22.10090000000001</v>
+        <v>-21.8748</v>
       </c>
       <c r="B99" t="n">
-        <v>5.693000000000001</v>
+        <v>5.202799999999994</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1832,7 +1832,7 @@
         <v>-21.08</v>
       </c>
       <c r="B100" t="n">
-        <v>4.569199999999999</v>
+        <v>4.3803</v>
       </c>
       <c r="C100" t="n">
         <v>-13.95</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>5.367899999999996</v>
+        <v>5.144199999999997</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1866,7 +1866,7 @@
         <v>-12.7</v>
       </c>
       <c r="D102" t="n">
-        <v>-8.126900000000001</v>
+        <v>-8.0031</v>
       </c>
     </row>
     <row r="103">
@@ -1877,7 +1877,7 @@
         <v>5.09</v>
       </c>
       <c r="C103" t="n">
-        <v>-12.96079999999999</v>
+        <v>-13.44459999999999</v>
       </c>
       <c r="D103" t="n">
         <v>-7.71</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-21.641</v>
+        <v>-21.56099999999999</v>
       </c>
       <c r="B104" t="n">
         <v>7.61</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-20.05410000000001</v>
+        <v>-19.82559999999999</v>
       </c>
       <c r="B105" t="n">
         <v>9.01</v>
